--- a/SCHEDA BUDGET.xlsx
+++ b/SCHEDA BUDGET.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dati\vito.tranquillo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dati\vito.tranquillo\Desktop\GitProjects\coges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6282324A-00E9-4C59-9744-BBACDBF92206}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E122F75-A94D-4999-B494-82EF886EB7EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="855" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCHEDA BUDEGT DIP A.T. E.ROMAGN" sheetId="1" r:id="rId1"/>
@@ -1281,6 +1281,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1320,71 +1392,50 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1392,86 +1443,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1792,7 +1792,7 @@
   </sheetPr>
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="A57" sqref="A57:H57"/>
     </sheetView>
   </sheetViews>
@@ -2313,16 +2313,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="58"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="82"/>
     </row>
     <row r="2" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -2351,19 +2351,19 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="64">
+      <c r="E3" s="84">
         <v>1</v>
       </c>
       <c r="F3" s="45" t="s">
@@ -2373,11 +2373,11 @@
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="84"/>
       <c r="F4" s="45" t="s">
         <v>14</v>
       </c>
@@ -2385,11 +2385,11 @@
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="84"/>
       <c r="F5" s="45" t="s">
         <v>15</v>
       </c>
@@ -2397,11 +2397,11 @@
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="84"/>
       <c r="F6" s="45" t="s">
         <v>16</v>
       </c>
@@ -2409,13 +2409,13 @@
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="63" t="s">
+      <c r="A7" s="83"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="84">
         <v>0.95</v>
       </c>
       <c r="F7" s="45" t="s">
@@ -2425,11 +2425,11 @@
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="65"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
       <c r="F8" s="45" t="s">
         <v>14</v>
       </c>
@@ -2437,11 +2437,11 @@
       <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="65"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
       <c r="F9" s="45" t="s">
         <v>15</v>
       </c>
@@ -2449,11 +2449,11 @@
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="65"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
       <c r="F10" s="45" t="s">
         <v>16</v>
       </c>
@@ -2461,13 +2461,13 @@
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="63" t="s">
+      <c r="A11" s="83"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="64">
+      <c r="E11" s="84">
         <v>0.9</v>
       </c>
       <c r="F11" s="45" t="s">
@@ -2477,11 +2477,11 @@
       <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="65"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
       <c r="F12" s="45" t="s">
         <v>14</v>
       </c>
@@ -2489,11 +2489,11 @@
       <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="65"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
       <c r="F13" s="45" t="s">
         <v>15</v>
       </c>
@@ -2501,11 +2501,11 @@
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="65"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
       <c r="F14" s="45" t="s">
         <v>16</v>
       </c>
@@ -2513,13 +2513,13 @@
       <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="63" t="s">
+      <c r="A15" s="83"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="67" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="45" t="s">
@@ -2529,11 +2529,11 @@
       <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="65"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
       <c r="F16" s="45" t="s">
         <v>14</v>
       </c>
@@ -2541,11 +2541,11 @@
       <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="65"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="67"/>
       <c r="F17" s="45" t="s">
         <v>15</v>
       </c>
@@ -2553,11 +2553,11 @@
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="65"/>
+      <c r="A18" s="83"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
       <c r="F18" s="45" t="s">
         <v>16</v>
       </c>
@@ -2565,17 +2565,17 @@
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
-      <c r="B19" s="60" t="s">
+      <c r="A19" s="83"/>
+      <c r="B19" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="65" t="s">
+      <c r="E19" s="67" t="s">
         <v>23</v>
       </c>
       <c r="F19" s="45" t="s">
@@ -2585,11 +2585,11 @@
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="65"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
       <c r="F20" s="45" t="s">
         <v>14</v>
       </c>
@@ -2597,11 +2597,11 @@
       <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="65"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
       <c r="F21" s="45" t="s">
         <v>15</v>
       </c>
@@ -2609,11 +2609,11 @@
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="65"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
       <c r="F22" s="45" t="s">
         <v>16</v>
       </c>
@@ -2621,15 +2621,15 @@
       <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="66" t="s">
+      <c r="A23" s="83"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="65" t="s">
+      <c r="E23" s="67" t="s">
         <v>26</v>
       </c>
       <c r="F23" s="45" t="s">
@@ -2639,11 +2639,11 @@
       <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="65"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
       <c r="F24" s="45" t="s">
         <v>14</v>
       </c>
@@ -2651,11 +2651,11 @@
       <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="65"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
       <c r="F25" s="45" t="s">
         <v>15</v>
       </c>
@@ -2663,11 +2663,11 @@
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="65"/>
+      <c r="A26" s="83"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
       <c r="F26" s="45" t="s">
         <v>16</v>
       </c>
@@ -2675,17 +2675,17 @@
       <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
-      <c r="B27" s="60" t="s">
+      <c r="A27" s="83"/>
+      <c r="B27" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="65" t="s">
+      <c r="E27" s="67" t="s">
         <v>30</v>
       </c>
       <c r="F27" s="45" t="s">
@@ -2695,11 +2695,11 @@
       <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="65"/>
+      <c r="A28" s="83"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
       <c r="F28" s="45" t="s">
         <v>14</v>
       </c>
@@ -2707,11 +2707,11 @@
       <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="65"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
       <c r="F29" s="45" t="s">
         <v>15</v>
       </c>
@@ -2719,11 +2719,11 @@
       <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="65"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
       <c r="F30" s="45" t="s">
         <v>16</v>
       </c>
@@ -2731,15 +2731,15 @@
       <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="70" t="s">
+      <c r="A31" s="83"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="71" t="s">
+      <c r="D31" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="65" t="s">
+      <c r="E31" s="67" t="s">
         <v>33</v>
       </c>
       <c r="F31" s="45" t="s">
@@ -2749,11 +2749,11 @@
       <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="65"/>
+      <c r="A32" s="83"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="67"/>
       <c r="F32" s="45" t="s">
         <v>14</v>
       </c>
@@ -2761,11 +2761,11 @@
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="65"/>
+      <c r="A33" s="83"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="67"/>
       <c r="F33" s="45" t="s">
         <v>15</v>
       </c>
@@ -2773,11 +2773,11 @@
       <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="65"/>
+      <c r="A34" s="83"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="67"/>
       <c r="F34" s="45" t="s">
         <v>16</v>
       </c>
@@ -2785,19 +2785,19 @@
       <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="79" t="s">
+      <c r="A35" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="80" t="s">
+      <c r="C35" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="81" t="s">
+      <c r="D35" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="72" t="s">
+      <c r="E35" s="59" t="s">
         <v>38</v>
       </c>
       <c r="F35" s="4" t="s">
@@ -2807,11 +2807,11 @@
       <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="79"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="72"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="59"/>
       <c r="F36" s="4" t="s">
         <v>14</v>
       </c>
@@ -2819,11 +2819,11 @@
       <c r="H36" s="14"/>
     </row>
     <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="79"/>
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="72"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="59"/>
       <c r="F37" s="4" t="s">
         <v>15</v>
       </c>
@@ -2831,11 +2831,11 @@
       <c r="H37" s="14"/>
     </row>
     <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="79"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="72"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="59"/>
       <c r="F38" s="4" t="s">
         <v>16</v>
       </c>
@@ -2843,17 +2843,17 @@
       <c r="H38" s="14"/>
     </row>
     <row r="39" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="79"/>
-      <c r="B39" s="67" t="s">
+      <c r="A39" s="56"/>
+      <c r="B39" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="80" t="s">
+      <c r="C39" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="81" t="s">
+      <c r="D39" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="72" t="s">
+      <c r="E39" s="59" t="s">
         <v>42</v>
       </c>
       <c r="F39" s="9" t="s">
@@ -2863,11 +2863,11 @@
       <c r="H39" s="14"/>
     </row>
     <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="79"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="72"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="59"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
@@ -2875,11 +2875,11 @@
       <c r="H40" s="14"/>
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="79"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="72"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="59"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
@@ -2887,11 +2887,11 @@
       <c r="H41" s="14"/>
     </row>
     <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="79"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="72"/>
+      <c r="A42" s="56"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="59"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
@@ -2899,15 +2899,15 @@
       <c r="H42" s="14"/>
     </row>
     <row r="43" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="79"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="67" t="s">
+      <c r="A43" s="56"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="67" t="s">
+      <c r="D43" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="72" t="s">
+      <c r="E43" s="59" t="s">
         <v>45</v>
       </c>
       <c r="F43" s="9" t="s">
@@ -2917,11 +2917,11 @@
       <c r="H43" s="14"/>
     </row>
     <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="79"/>
-      <c r="B44" s="68"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="72"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="59"/>
       <c r="F44" s="9" t="s">
         <v>14</v>
       </c>
@@ -2929,11 +2929,11 @@
       <c r="H44" s="14"/>
     </row>
     <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="79"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="72"/>
+      <c r="A45" s="56"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="59"/>
       <c r="F45" s="9" t="s">
         <v>15</v>
       </c>
@@ -2941,11 +2941,11 @@
       <c r="H45" s="14"/>
     </row>
     <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="79"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="72"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="59"/>
       <c r="F46" s="9" t="s">
         <v>16</v>
       </c>
@@ -2953,19 +2953,19 @@
       <c r="H46" s="14"/>
     </row>
     <row r="47" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="79" t="s">
+      <c r="A47" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="80" t="s">
+      <c r="B47" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="80" t="s">
+      <c r="C47" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="80" t="s">
+      <c r="D47" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="E47" s="72" t="s">
+      <c r="E47" s="59" t="s">
         <v>50</v>
       </c>
       <c r="F47" s="9" t="s">
@@ -2975,11 +2975,11 @@
       <c r="H47" s="14"/>
     </row>
     <row r="48" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="79"/>
-      <c r="B48" s="80"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="72"/>
+      <c r="A48" s="56"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="59"/>
       <c r="F48" s="9" t="s">
         <v>14</v>
       </c>
@@ -2987,11 +2987,11 @@
       <c r="H48" s="14"/>
     </row>
     <row r="49" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="79"/>
-      <c r="B49" s="80"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="72"/>
+      <c r="A49" s="56"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="59"/>
       <c r="F49" s="9" t="s">
         <v>15</v>
       </c>
@@ -2999,11 +2999,11 @@
       <c r="H49" s="14"/>
     </row>
     <row r="50" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="79"/>
-      <c r="B50" s="80"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="72"/>
+      <c r="A50" s="56"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="59"/>
       <c r="F50" s="9" t="s">
         <v>16</v>
       </c>
@@ -3011,13 +3011,13 @@
       <c r="H50" s="14"/>
     </row>
     <row r="51" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="47" t="s">
+      <c r="A51" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="49"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="73"/>
       <c r="F51" s="17" t="s">
         <v>13</v>
       </c>
@@ -3025,11 +3025,11 @@
       <c r="H51" s="14"/>
     </row>
     <row r="52" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="50"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="52"/>
+      <c r="A52" s="74"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="76"/>
       <c r="F52" s="17" t="s">
         <v>14</v>
       </c>
@@ -3037,11 +3037,11 @@
       <c r="H52" s="14"/>
     </row>
     <row r="53" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="50"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="52"/>
+      <c r="A53" s="74"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="76"/>
       <c r="F53" s="17" t="s">
         <v>15</v>
       </c>
@@ -3049,11 +3049,11 @@
       <c r="H53" s="14"/>
     </row>
     <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="55"/>
+      <c r="A54" s="77"/>
+      <c r="B54" s="78"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="79"/>
       <c r="F54" s="17" t="s">
         <v>16</v>
       </c>
@@ -3061,96 +3061,121 @@
       <c r="H54" s="14"/>
     </row>
     <row r="55" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="73" t="s">
+      <c r="A55" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="74"/>
-      <c r="C55" s="74"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="74"/>
-      <c r="H55" s="75"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="51"/>
     </row>
     <row r="56" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="110" t="s">
+      <c r="A56" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="B56" s="74"/>
-      <c r="C56" s="74"/>
-      <c r="D56" s="74"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="74"/>
-      <c r="G56" s="74"/>
-      <c r="H56" s="75"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="51"/>
     </row>
     <row r="57" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="73" t="s">
+      <c r="A57" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="74"/>
-      <c r="C57" s="74"/>
-      <c r="D57" s="74"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="74"/>
-      <c r="G57" s="74"/>
-      <c r="H57" s="75"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="51"/>
     </row>
     <row r="58" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="73" t="s">
+      <c r="A58" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="74"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="74"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="74"/>
-      <c r="G58" s="74"/>
-      <c r="H58" s="75"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="51"/>
     </row>
     <row r="59" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="73" t="s">
+      <c r="A59" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="74"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="74"/>
-      <c r="H59" s="75"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="51"/>
     </row>
     <row r="60" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="73" t="s">
+      <c r="A60" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="74"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="74"/>
-      <c r="G60" s="74"/>
-      <c r="H60" s="75"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="51"/>
     </row>
     <row r="61" spans="1:8" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="76" t="s">
+      <c r="A61" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="77"/>
-      <c r="C61" s="77"/>
-      <c r="D61" s="77"/>
-      <c r="E61" s="77"/>
-      <c r="F61" s="77"/>
-      <c r="G61" s="77"/>
-      <c r="H61" s="78"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="A58:H58"/>
-    <mergeCell ref="A59:H59"/>
+    <mergeCell ref="A51:E54"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A34"/>
+    <mergeCell ref="B3:B18"/>
+    <mergeCell ref="C3:C18"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E34"/>
     <mergeCell ref="A60:H60"/>
     <mergeCell ref="A61:H61"/>
     <mergeCell ref="A35:A46"/>
@@ -3167,36 +3192,11 @@
     <mergeCell ref="C47:C50"/>
     <mergeCell ref="D47:D50"/>
     <mergeCell ref="E47:E50"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="A51:E54"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:A34"/>
-    <mergeCell ref="B3:B18"/>
-    <mergeCell ref="C3:C18"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="A59:H59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="59" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -3729,17 +3729,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82"/>
     </row>
     <row r="2" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -3771,20 +3771,20 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="95">
+      <c r="E3" s="96"/>
+      <c r="F3" s="107">
         <v>1</v>
       </c>
       <c r="G3" s="36" t="s">
@@ -3798,12 +3798,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="95"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="107"/>
       <c r="G4" s="36" t="s">
         <v>61</v>
       </c>
@@ -3813,12 +3813,12 @@
       <c r="I4" s="44"/>
     </row>
     <row r="5" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="95"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="107"/>
       <c r="G5" s="36" t="s">
         <v>62</v>
       </c>
@@ -3826,14 +3826,14 @@
       <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="90" t="s">
+      <c r="A6" s="56"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="92"/>
-      <c r="F6" s="96">
+      <c r="E6" s="96"/>
+      <c r="F6" s="106">
         <v>0.95</v>
       </c>
       <c r="G6" s="36" t="s">
@@ -3843,12 +3843,12 @@
       <c r="I6" s="44"/>
     </row>
     <row r="7" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="82"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="99"/>
       <c r="G7" s="36" t="s">
         <v>61</v>
       </c>
@@ -3856,12 +3856,12 @@
       <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="82"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="99"/>
       <c r="G8" s="36" t="s">
         <v>62</v>
       </c>
@@ -3869,14 +3869,14 @@
       <c r="I8" s="44"/>
     </row>
     <row r="9" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="79"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="90" t="s">
+      <c r="A9" s="56"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="92"/>
-      <c r="F9" s="96">
+      <c r="E9" s="96"/>
+      <c r="F9" s="106">
         <v>0.9</v>
       </c>
       <c r="G9" s="36" t="s">
@@ -3886,12 +3886,12 @@
       <c r="I9" s="44"/>
     </row>
     <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="79"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="82"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="99"/>
       <c r="G10" s="36" t="s">
         <v>61</v>
       </c>
@@ -3899,12 +3899,12 @@
       <c r="I10" s="44"/>
     </row>
     <row r="11" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="79"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="82"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="99"/>
       <c r="G11" s="36" t="s">
         <v>62</v>
       </c>
@@ -3912,14 +3912,14 @@
       <c r="I11" s="44"/>
     </row>
     <row r="12" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="79"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="90" t="s">
+      <c r="A12" s="56"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="92"/>
-      <c r="F12" s="82" t="s">
+      <c r="E12" s="96"/>
+      <c r="F12" s="99" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="36" t="s">
@@ -3929,12 +3929,12 @@
       <c r="I12" s="44"/>
     </row>
     <row r="13" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="79"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="82"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="99"/>
       <c r="G13" s="36" t="s">
         <v>61</v>
       </c>
@@ -3942,12 +3942,12 @@
       <c r="I13" s="44"/>
     </row>
     <row r="14" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="79"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="82"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="99"/>
       <c r="G14" s="36" t="s">
         <v>62</v>
       </c>
@@ -3955,18 +3955,18 @@
       <c r="I14" s="44"/>
     </row>
     <row r="15" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="79"/>
-      <c r="B15" s="67" t="s">
+      <c r="A15" s="56"/>
+      <c r="B15" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="91" t="s">
+      <c r="C15" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="90" t="s">
+      <c r="D15" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="92"/>
-      <c r="F15" s="82" t="s">
+      <c r="E15" s="96"/>
+      <c r="F15" s="99" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="36" t="s">
@@ -3976,12 +3976,12 @@
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="79"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="82"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="99"/>
       <c r="G16" s="36" t="s">
         <v>61</v>
       </c>
@@ -3989,12 +3989,12 @@
       <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="79"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="82"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="99"/>
       <c r="G17" s="36" t="s">
         <v>62</v>
       </c>
@@ -4002,16 +4002,16 @@
       <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="79"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="91" t="s">
+      <c r="A18" s="56"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="90" t="s">
+      <c r="D18" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="92"/>
-      <c r="F18" s="82" t="s">
+      <c r="E18" s="96"/>
+      <c r="F18" s="99" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="36" t="s">
@@ -4021,12 +4021,12 @@
       <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:9" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="79"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="82"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="99"/>
       <c r="G19" s="36" t="s">
         <v>61</v>
       </c>
@@ -4034,12 +4034,12 @@
       <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:9" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="79"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="82"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="99"/>
       <c r="G20" s="36" t="s">
         <v>62</v>
       </c>
@@ -4047,18 +4047,18 @@
       <c r="I20" s="19"/>
     </row>
     <row r="21" spans="1:9" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="79"/>
-      <c r="B21" s="67" t="s">
+      <c r="A21" s="56"/>
+      <c r="B21" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="84" t="s">
+      <c r="D21" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="92"/>
-      <c r="F21" s="82" t="s">
+      <c r="E21" s="96"/>
+      <c r="F21" s="99" t="s">
         <v>30</v>
       </c>
       <c r="G21" s="36" t="s">
@@ -4068,12 +4068,12 @@
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="79"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="82"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="99"/>
       <c r="G22" s="36" t="s">
         <v>61</v>
       </c>
@@ -4081,12 +4081,12 @@
       <c r="I22" s="19"/>
     </row>
     <row r="23" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="79"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="82"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="99"/>
       <c r="G23" s="36" t="s">
         <v>62</v>
       </c>
@@ -4094,16 +4094,16 @@
       <c r="I23" s="19"/>
     </row>
     <row r="24" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="79"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="80" t="s">
+      <c r="A24" s="56"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="83" t="s">
+      <c r="D24" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="100"/>
-      <c r="F24" s="82" t="s">
+      <c r="E24" s="101"/>
+      <c r="F24" s="99" t="s">
         <v>33</v>
       </c>
       <c r="G24" s="36" t="s">
@@ -4113,12 +4113,12 @@
       <c r="I24" s="18"/>
     </row>
     <row r="25" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="79"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="82"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="99"/>
       <c r="G25" s="36" t="s">
         <v>61</v>
       </c>
@@ -4126,12 +4126,12 @@
       <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="79"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="82"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="99"/>
       <c r="G26" s="36" t="s">
         <v>62</v>
       </c>
@@ -4139,20 +4139,20 @@
       <c r="I26" s="19"/>
     </row>
     <row r="27" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="79" t="s">
+      <c r="A27" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="80" t="s">
+      <c r="C27" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="81" t="s">
+      <c r="D27" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="97"/>
-      <c r="F27" s="72" t="s">
+      <c r="E27" s="90"/>
+      <c r="F27" s="59" t="s">
         <v>38</v>
       </c>
       <c r="G27" s="36" t="s">
@@ -4162,12 +4162,12 @@
       <c r="I27" s="18"/>
     </row>
     <row r="28" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="79"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="72"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="59"/>
       <c r="G28" s="36" t="s">
         <v>61</v>
       </c>
@@ -4175,12 +4175,12 @@
       <c r="I28" s="19"/>
     </row>
     <row r="29" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="79"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="72"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="59"/>
       <c r="G29" s="36" t="s">
         <v>62</v>
       </c>
@@ -4188,18 +4188,18 @@
       <c r="I29" s="19"/>
     </row>
     <row r="30" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="79"/>
-      <c r="B30" s="67" t="s">
+      <c r="A30" s="56"/>
+      <c r="B30" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="80" t="s">
+      <c r="C30" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="81" t="s">
+      <c r="D30" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="97"/>
-      <c r="F30" s="72" t="s">
+      <c r="E30" s="90"/>
+      <c r="F30" s="59" t="s">
         <v>42</v>
       </c>
       <c r="G30" s="36" t="s">
@@ -4209,12 +4209,12 @@
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="72"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="59"/>
       <c r="G31" s="36" t="s">
         <v>61</v>
       </c>
@@ -4222,12 +4222,12 @@
       <c r="I31" s="19"/>
     </row>
     <row r="32" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="79"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="72"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="59"/>
       <c r="G32" s="36" t="s">
         <v>62</v>
       </c>
@@ -4235,16 +4235,16 @@
       <c r="I32" s="19"/>
     </row>
     <row r="33" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="79"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="67" t="s">
+      <c r="A33" s="56"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="67" t="s">
+      <c r="D33" s="60" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="87"/>
-      <c r="F33" s="72" t="s">
+      <c r="F33" s="59" t="s">
         <v>45</v>
       </c>
       <c r="G33" s="36" t="s">
@@ -4254,12 +4254,12 @@
       <c r="I33" s="18"/>
     </row>
     <row r="34" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="79"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
       <c r="E34" s="88"/>
-      <c r="F34" s="72"/>
+      <c r="F34" s="59"/>
       <c r="G34" s="36" t="s">
         <v>61</v>
       </c>
@@ -4267,12 +4267,12 @@
       <c r="I34" s="19"/>
     </row>
     <row r="35" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="79"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
       <c r="E35" s="89"/>
-      <c r="F35" s="72"/>
+      <c r="F35" s="59"/>
       <c r="G35" s="36" t="s">
         <v>62</v>
       </c>
@@ -4280,20 +4280,20 @@
       <c r="I35" s="19"/>
     </row>
     <row r="36" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="79" t="s">
+      <c r="A36" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="80" t="s">
+      <c r="B36" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="80" t="s">
+      <c r="C36" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="80" t="s">
+      <c r="D36" s="57" t="s">
         <v>49</v>
       </c>
       <c r="E36" s="87"/>
-      <c r="F36" s="72" t="s">
+      <c r="F36" s="59" t="s">
         <v>50</v>
       </c>
       <c r="G36" s="36" t="s">
@@ -4303,12 +4303,12 @@
       <c r="I36" s="18"/>
     </row>
     <row r="37" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="79"/>
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
       <c r="E37" s="88"/>
-      <c r="F37" s="72"/>
+      <c r="F37" s="59"/>
       <c r="G37" s="36" t="s">
         <v>61</v>
       </c>
@@ -4316,12 +4316,12 @@
       <c r="I37" s="19"/>
     </row>
     <row r="38" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="79"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
       <c r="E38" s="89"/>
-      <c r="F38" s="72"/>
+      <c r="F38" s="59"/>
       <c r="G38" s="36" t="s">
         <v>62</v>
       </c>
@@ -4340,150 +4340,98 @@
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="73" t="s">
+      <c r="A40" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="74"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="75"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="51"/>
     </row>
     <row r="41" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="108" t="s">
+      <c r="A41" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="105"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="105"/>
-      <c r="I41" s="105"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="73" t="s">
+      <c r="A42" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="74"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="75"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="51"/>
     </row>
     <row r="43" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="73" t="s">
+      <c r="A43" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="74"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="75"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="51"/>
     </row>
     <row r="44" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="73" t="s">
+      <c r="A44" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="74"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="75"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="51"/>
     </row>
     <row r="45" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="73" t="s">
+      <c r="A45" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="74"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="74"/>
-      <c r="I45" s="75"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="51"/>
     </row>
     <row r="46" spans="1:9" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="76" t="s">
+      <c r="A46" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="77"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="77"/>
-      <c r="I46" s="78"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="A27:A35"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:A26"/>
     <mergeCell ref="B3:B14"/>
@@ -4494,6 +4442,58 @@
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="F6:F8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="A27:A35"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5026,17 +5026,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82"/>
     </row>
     <row r="2" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -5068,20 +5068,20 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="95">
+      <c r="E3" s="96"/>
+      <c r="F3" s="107">
         <v>1</v>
       </c>
       <c r="G3" s="16" t="s">
@@ -5091,12 +5091,12 @@
       <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="95"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="107"/>
       <c r="G4" s="16" t="s">
         <v>66</v>
       </c>
@@ -5104,14 +5104,14 @@
       <c r="I4" s="44"/>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="90" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="92"/>
-      <c r="F5" s="96">
+      <c r="E5" s="96"/>
+      <c r="F5" s="106">
         <v>0.95</v>
       </c>
       <c r="G5" s="36" t="s">
@@ -5121,12 +5121,12 @@
       <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="82"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="99"/>
       <c r="G6" s="36" t="s">
         <v>66</v>
       </c>
@@ -5134,14 +5134,14 @@
       <c r="I6" s="44"/>
     </row>
     <row r="7" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="90" t="s">
+      <c r="A7" s="56"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="96">
+      <c r="E7" s="96"/>
+      <c r="F7" s="106">
         <v>0.9</v>
       </c>
       <c r="G7" s="36" t="s">
@@ -5151,12 +5151,12 @@
       <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="82"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="99"/>
       <c r="G8" s="36" t="s">
         <v>66</v>
       </c>
@@ -5164,14 +5164,14 @@
       <c r="I8" s="44"/>
     </row>
     <row r="9" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="79"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="90" t="s">
+      <c r="A9" s="56"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="92"/>
-      <c r="F9" s="82" t="s">
+      <c r="E9" s="96"/>
+      <c r="F9" s="99" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="36" t="s">
@@ -5181,12 +5181,12 @@
       <c r="I9" s="44"/>
     </row>
     <row r="10" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="79"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="82"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="99"/>
       <c r="G10" s="36" t="s">
         <v>66</v>
       </c>
@@ -5194,18 +5194,18 @@
       <c r="I10" s="44"/>
     </row>
     <row r="11" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="79"/>
-      <c r="B11" s="67" t="s">
+      <c r="A11" s="56"/>
+      <c r="B11" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="90" t="s">
+      <c r="D11" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="92"/>
-      <c r="F11" s="82" t="s">
+      <c r="E11" s="96"/>
+      <c r="F11" s="99" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="36" t="s">
@@ -5215,12 +5215,12 @@
       <c r="I11" s="44"/>
     </row>
     <row r="12" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="79"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="82"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="99"/>
       <c r="G12" s="36" t="s">
         <v>66</v>
       </c>
@@ -5228,16 +5228,16 @@
       <c r="I12" s="44"/>
     </row>
     <row r="13" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="79"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="91" t="s">
+      <c r="A13" s="56"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="92"/>
-      <c r="F13" s="82" t="s">
+      <c r="E13" s="96"/>
+      <c r="F13" s="99" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="36" t="s">
@@ -5247,12 +5247,12 @@
       <c r="I13" s="44"/>
     </row>
     <row r="14" spans="1:9" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="79"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="82"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="99"/>
       <c r="G14" s="36" t="s">
         <v>66</v>
       </c>
@@ -5260,18 +5260,18 @@
       <c r="I14" s="44"/>
     </row>
     <row r="15" spans="1:9" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="79"/>
-      <c r="B15" s="67" t="s">
+      <c r="A15" s="56"/>
+      <c r="B15" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="92"/>
-      <c r="F15" s="82" t="s">
+      <c r="E15" s="96"/>
+      <c r="F15" s="99" t="s">
         <v>30</v>
       </c>
       <c r="G15" s="36" t="s">
@@ -5281,12 +5281,12 @@
       <c r="I15" s="44"/>
     </row>
     <row r="16" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="79"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="82"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="99"/>
       <c r="G16" s="36" t="s">
         <v>66</v>
       </c>
@@ -5294,16 +5294,16 @@
       <c r="I16" s="44"/>
     </row>
     <row r="17" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="79"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="80" t="s">
+      <c r="A17" s="56"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="83" t="s">
+      <c r="D17" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="82" t="s">
+      <c r="E17" s="101"/>
+      <c r="F17" s="99" t="s">
         <v>33</v>
       </c>
       <c r="G17" s="36" t="s">
@@ -5313,12 +5313,12 @@
       <c r="I17" s="44"/>
     </row>
     <row r="18" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="79"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="82"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="99"/>
       <c r="G18" s="36" t="s">
         <v>66</v>
       </c>
@@ -5326,20 +5326,20 @@
       <c r="I18" s="44"/>
     </row>
     <row r="19" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="81" t="s">
+      <c r="D19" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="97"/>
-      <c r="F19" s="72" t="s">
+      <c r="E19" s="90"/>
+      <c r="F19" s="59" t="s">
         <v>38</v>
       </c>
       <c r="G19" s="36" t="s">
@@ -5349,12 +5349,12 @@
       <c r="I19" s="44"/>
     </row>
     <row r="20" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="79"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="72"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="59"/>
       <c r="G20" s="36" t="s">
         <v>66</v>
       </c>
@@ -5362,18 +5362,18 @@
       <c r="I20" s="44"/>
     </row>
     <row r="21" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="79"/>
-      <c r="B21" s="67" t="s">
+      <c r="A21" s="56"/>
+      <c r="B21" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="80" t="s">
+      <c r="C21" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="81" t="s">
+      <c r="D21" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="97"/>
-      <c r="F21" s="72" t="s">
+      <c r="E21" s="90"/>
+      <c r="F21" s="59" t="s">
         <v>42</v>
       </c>
       <c r="G21" s="36" t="s">
@@ -5383,12 +5383,12 @@
       <c r="I21" s="44"/>
     </row>
     <row r="22" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="79"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="72"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="59"/>
       <c r="G22" s="36" t="s">
         <v>66</v>
       </c>
@@ -5396,16 +5396,16 @@
       <c r="I22" s="44"/>
     </row>
     <row r="23" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="79"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="67" t="s">
+      <c r="A23" s="56"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="60" t="s">
         <v>44</v>
       </c>
       <c r="E23" s="87"/>
-      <c r="F23" s="72" t="s">
+      <c r="F23" s="59" t="s">
         <v>45</v>
       </c>
       <c r="G23" s="36" t="s">
@@ -5415,12 +5415,12 @@
       <c r="I23" s="44"/>
     </row>
     <row r="24" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="79"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
       <c r="E24" s="88"/>
-      <c r="F24" s="72"/>
+      <c r="F24" s="59"/>
       <c r="G24" s="36" t="s">
         <v>66</v>
       </c>
@@ -5428,20 +5428,20 @@
       <c r="I24" s="44"/>
     </row>
     <row r="25" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="79" t="s">
+      <c r="A25" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="80" t="s">
+      <c r="C25" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="80" t="s">
+      <c r="D25" s="57" t="s">
         <v>49</v>
       </c>
       <c r="E25" s="87"/>
-      <c r="F25" s="72" t="s">
+      <c r="F25" s="59" t="s">
         <v>50</v>
       </c>
       <c r="G25" s="36" t="s">
@@ -5451,12 +5451,12 @@
       <c r="I25" s="44"/>
     </row>
     <row r="26" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="79"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
       <c r="E26" s="88"/>
-      <c r="F26" s="72"/>
+      <c r="F26" s="59"/>
       <c r="G26" s="36" t="s">
         <v>66</v>
       </c>
@@ -5483,22 +5483,22 @@
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
     </row>
     <row r="29" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="107" t="s">
+      <c r="A29" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="106"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="109"/>
     </row>
     <row r="30" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
@@ -5564,11 +5564,30 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:A18"/>
@@ -5585,16 +5604,11 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E17:E18"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="F15:F16"/>
@@ -5606,20 +5620,6 @@
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6152,17 +6152,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82"/>
     </row>
     <row r="2" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -6194,20 +6194,20 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="95">
+      <c r="E3" s="96"/>
+      <c r="F3" s="107">
         <v>1</v>
       </c>
       <c r="G3" s="36" t="s">
@@ -6217,12 +6217,12 @@
       <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="95"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="107"/>
       <c r="G4" s="36" t="s">
         <v>69</v>
       </c>
@@ -6230,14 +6230,14 @@
       <c r="I4" s="44"/>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="90" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="92"/>
-      <c r="F5" s="96">
+      <c r="E5" s="96"/>
+      <c r="F5" s="106">
         <v>0.95</v>
       </c>
       <c r="G5" s="36" t="s">
@@ -6247,12 +6247,12 @@
       <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="82"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="99"/>
       <c r="G6" s="36" t="s">
         <v>69</v>
       </c>
@@ -6260,14 +6260,14 @@
       <c r="I6" s="44"/>
     </row>
     <row r="7" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="90" t="s">
+      <c r="A7" s="56"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="96">
+      <c r="E7" s="96"/>
+      <c r="F7" s="106">
         <v>0.9</v>
       </c>
       <c r="G7" s="36" t="s">
@@ -6277,12 +6277,12 @@
       <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="82"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="99"/>
       <c r="G8" s="36" t="s">
         <v>69</v>
       </c>
@@ -6290,14 +6290,14 @@
       <c r="I8" s="44"/>
     </row>
     <row r="9" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="79"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="90" t="s">
+      <c r="A9" s="56"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="92"/>
-      <c r="F9" s="82" t="s">
+      <c r="E9" s="96"/>
+      <c r="F9" s="99" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="36" t="s">
@@ -6307,12 +6307,12 @@
       <c r="I9" s="44"/>
     </row>
     <row r="10" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="79"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="82"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="99"/>
       <c r="G10" s="36" t="s">
         <v>69</v>
       </c>
@@ -6320,18 +6320,18 @@
       <c r="I10" s="44"/>
     </row>
     <row r="11" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="79"/>
-      <c r="B11" s="67" t="s">
+      <c r="A11" s="56"/>
+      <c r="B11" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="90" t="s">
+      <c r="D11" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="92"/>
-      <c r="F11" s="82" t="s">
+      <c r="E11" s="96"/>
+      <c r="F11" s="99" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="36" t="s">
@@ -6341,12 +6341,12 @@
       <c r="I11" s="44"/>
     </row>
     <row r="12" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="79"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="82"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="99"/>
       <c r="G12" s="36" t="s">
         <v>69</v>
       </c>
@@ -6354,16 +6354,16 @@
       <c r="I12" s="44"/>
     </row>
     <row r="13" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="79"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="91" t="s">
+      <c r="A13" s="56"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="92"/>
-      <c r="F13" s="82" t="s">
+      <c r="E13" s="96"/>
+      <c r="F13" s="99" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="36" t="s">
@@ -6373,12 +6373,12 @@
       <c r="I13" s="44"/>
     </row>
     <row r="14" spans="1:9" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="79"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="82"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="99"/>
       <c r="G14" s="36" t="s">
         <v>69</v>
       </c>
@@ -6386,18 +6386,18 @@
       <c r="I14" s="44"/>
     </row>
     <row r="15" spans="1:9" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="79"/>
-      <c r="B15" s="67" t="s">
+      <c r="A15" s="56"/>
+      <c r="B15" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="92"/>
-      <c r="F15" s="82" t="s">
+      <c r="E15" s="96"/>
+      <c r="F15" s="99" t="s">
         <v>30</v>
       </c>
       <c r="G15" s="36" t="s">
@@ -6407,12 +6407,12 @@
       <c r="I15" s="44"/>
     </row>
     <row r="16" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="79"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="82"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="99"/>
       <c r="G16" s="36" t="s">
         <v>69</v>
       </c>
@@ -6420,16 +6420,16 @@
       <c r="I16" s="44"/>
     </row>
     <row r="17" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="79"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="80" t="s">
+      <c r="A17" s="56"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="83" t="s">
+      <c r="D17" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="82" t="s">
+      <c r="E17" s="101"/>
+      <c r="F17" s="99" t="s">
         <v>33</v>
       </c>
       <c r="G17" s="36" t="s">
@@ -6439,12 +6439,12 @@
       <c r="I17" s="44"/>
     </row>
     <row r="18" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="79"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="82"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="99"/>
       <c r="G18" s="36" t="s">
         <v>69</v>
       </c>
@@ -6452,20 +6452,20 @@
       <c r="I18" s="44"/>
     </row>
     <row r="19" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="81" t="s">
+      <c r="D19" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="97"/>
-      <c r="F19" s="72" t="s">
+      <c r="E19" s="90"/>
+      <c r="F19" s="59" t="s">
         <v>38</v>
       </c>
       <c r="G19" s="36" t="s">
@@ -6475,12 +6475,12 @@
       <c r="I19" s="44"/>
     </row>
     <row r="20" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="79"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="72"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="59"/>
       <c r="G20" s="36" t="s">
         <v>69</v>
       </c>
@@ -6488,18 +6488,18 @@
       <c r="I20" s="44"/>
     </row>
     <row r="21" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="79"/>
-      <c r="B21" s="67" t="s">
+      <c r="A21" s="56"/>
+      <c r="B21" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="80" t="s">
+      <c r="C21" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="81" t="s">
+      <c r="D21" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="97"/>
-      <c r="F21" s="72" t="s">
+      <c r="E21" s="90"/>
+      <c r="F21" s="59" t="s">
         <v>42</v>
       </c>
       <c r="G21" s="36" t="s">
@@ -6509,12 +6509,12 @@
       <c r="I21" s="44"/>
     </row>
     <row r="22" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="79"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="72"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="59"/>
       <c r="G22" s="36" t="s">
         <v>69</v>
       </c>
@@ -6522,16 +6522,16 @@
       <c r="I22" s="44"/>
     </row>
     <row r="23" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="79"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="67" t="s">
+      <c r="A23" s="56"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="60" t="s">
         <v>44</v>
       </c>
       <c r="E23" s="87"/>
-      <c r="F23" s="72" t="s">
+      <c r="F23" s="59" t="s">
         <v>45</v>
       </c>
       <c r="G23" s="36" t="s">
@@ -6541,12 +6541,12 @@
       <c r="I23" s="44"/>
     </row>
     <row r="24" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="79"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
       <c r="E24" s="88"/>
-      <c r="F24" s="72"/>
+      <c r="F24" s="59"/>
       <c r="G24" s="36" t="s">
         <v>69</v>
       </c>
@@ -6554,20 +6554,20 @@
       <c r="I24" s="44"/>
     </row>
     <row r="25" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="79" t="s">
+      <c r="A25" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="80" t="s">
+      <c r="C25" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="80" t="s">
+      <c r="D25" s="57" t="s">
         <v>49</v>
       </c>
       <c r="E25" s="87"/>
-      <c r="F25" s="72" t="s">
+      <c r="F25" s="59" t="s">
         <v>50</v>
       </c>
       <c r="G25" s="36" t="s">
@@ -6577,12 +6577,12 @@
       <c r="I25" s="44"/>
     </row>
     <row r="26" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="79"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
       <c r="E26" s="89"/>
-      <c r="F26" s="72"/>
+      <c r="F26" s="59"/>
       <c r="G26" s="36" t="s">
         <v>69</v>
       </c>
@@ -6609,22 +6609,22 @@
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
     </row>
     <row r="29" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="106"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="109"/>
     </row>
     <row r="30" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
@@ -6690,6 +6690,46 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="A29:I29"/>
     <mergeCell ref="F21:F22"/>
@@ -6706,46 +6746,6 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A18"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="C3:C10"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6756,7 +6756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69501335-2AAD-43EA-A584-01C5E60FB919}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -7278,17 +7278,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82"/>
     </row>
     <row r="2" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -7320,20 +7320,20 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="60" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="43" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="42"/>
-      <c r="F3" s="109">
+      <c r="F3" s="48">
         <v>1</v>
       </c>
       <c r="G3" s="36" t="s">
@@ -7343,9 +7343,9 @@
       <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="35" t="s">
         <v>17</v>
       </c>
@@ -7360,14 +7360,14 @@
       <c r="I4" s="44"/>
     </row>
     <row r="5" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="43" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="42"/>
-      <c r="F5" s="109">
+      <c r="F5" s="48">
         <v>0.9</v>
       </c>
       <c r="G5" s="36" t="s">
@@ -7377,9 +7377,9 @@
       <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
       <c r="D6" s="35" t="s">
         <v>19</v>
       </c>
@@ -7394,8 +7394,8 @@
       <c r="I6" s="44"/>
     </row>
     <row r="7" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
-      <c r="B7" s="67" t="s">
+      <c r="A7" s="56"/>
+      <c r="B7" s="60" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="34" t="s">
@@ -7415,8 +7415,8 @@
       <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
-      <c r="B8" s="68"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="34" t="s">
         <v>24</v>
       </c>
@@ -7434,8 +7434,8 @@
       <c r="I8" s="44"/>
     </row>
     <row r="9" spans="1:9" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="79"/>
-      <c r="B9" s="67" t="s">
+      <c r="A9" s="56"/>
+      <c r="B9" s="60" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="33" t="s">
@@ -7455,8 +7455,8 @@
       <c r="I9" s="44"/>
     </row>
     <row r="10" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="79"/>
-      <c r="B10" s="68"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="30" t="s">
         <v>31</v>
       </c>
@@ -7474,7 +7474,7 @@
       <c r="I10" s="44"/>
     </row>
     <row r="11" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="56" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="30" t="s">
@@ -7497,8 +7497,8 @@
       <c r="I11" s="44"/>
     </row>
     <row r="12" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="79"/>
-      <c r="B12" s="67" t="s">
+      <c r="A12" s="56"/>
+      <c r="B12" s="60" t="s">
         <v>39</v>
       </c>
       <c r="C12" s="30" t="s">
@@ -7518,8 +7518,8 @@
       <c r="I12" s="44"/>
     </row>
     <row r="13" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="79"/>
-      <c r="B13" s="68"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="33" t="s">
         <v>43</v>
       </c>
@@ -7579,22 +7579,22 @@
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
     </row>
     <row r="17" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="106"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="109"/>
     </row>
     <row r="18" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
@@ -7660,15 +7660,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
     <mergeCell ref="A17:I17"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
